--- a/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
+++ b/Classification Results/Augmented Data/Full VPOP Classification/By Diagnosis/Control 1 (35, 1, 31, 14, 19)/MDD 2 (11, 12, 53, 29, 55)/ANN_128nodes_Uniform0.05Virtual_Control(35, 1, 31, 14, 19)_MDD(11, 12, 53, 29, 55)_100perPatient_batchsize10_20maxITER_StandardizeAll_smoothing0_dropout0.5.xlsx
@@ -456,10 +456,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9999999999536686</v>
+        <v>1</v>
       </c>
       <c r="E2">
-        <v>0.9999999999536686</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -470,10 +470,10 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
       <c r="E3">
-        <v>0.9999999999999998</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -484,10 +484,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6494954668933616</v>
+        <v>0.9993305975431873</v>
       </c>
       <c r="E4">
-        <v>0.6494954668933616</v>
+        <v>0.9993305975431873</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="D5">
-        <v>1.035207651600544E-05</v>
+        <v>2.518342402627153E-06</v>
       </c>
       <c r="E5">
-        <v>1.035207651600544E-05</v>
+        <v>2.518342402627153E-06</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -512,10 +512,10 @@
         <v>1</v>
       </c>
       <c r="D6">
-        <v>0.001051265711491735</v>
+        <v>0.004933958571001721</v>
       </c>
       <c r="E6">
-        <v>0.001051265711491735</v>
+        <v>0.004933958571001721</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -526,10 +526,10 @@
         <v>1</v>
       </c>
       <c r="D7">
-        <v>1</v>
+        <v>0.9999999999999705</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>2.953193245502916E-14</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -540,10 +540,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0001095887952575566</v>
+        <v>0.0002026292759377265</v>
       </c>
       <c r="E8">
-        <v>0.9998904112047424</v>
+        <v>0.9997973707240623</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -554,10 +554,10 @@
         <v>1</v>
       </c>
       <c r="D9">
-        <v>0.9999999904820763</v>
+        <v>0.9999999988089914</v>
       </c>
       <c r="E9">
-        <v>9.517923671431561E-09</v>
+        <v>1.191008625056611E-09</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -568,7 +568,7 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>9.045758143557003E-26</v>
+        <v>2.086481389027562E-18</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -582,13 +582,13 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>3.71369630579837E-41</v>
+        <v>4.154109954665919E-45</v>
       </c>
       <c r="E11">
         <v>1</v>
       </c>
       <c r="F11">
-        <v>22.13921165466309</v>
+        <v>26.42608642578125</v>
       </c>
       <c r="G11">
         <v>0.4</v>
